--- a/data/hsr/data_hsr_artifact.xlsx
+++ b/data/hsr/data_hsr_artifact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3CDCE6-3953-4569-A3E8-47FF6F870B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340AFEF-4F5B-4BB1-B2E3-C6E64B42BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="2004" windowWidth="18816" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="996" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>kind</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -404,51 +400,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>装備キャラの攻撃力+12%。装備キャラの速度が120以上の場合、更に攻撃力+12%。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>装備キャラのEP回復効率+5%。装備キャラの速度が145以上の場合、戦闘に入る時、行動順を50%早める。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>装備キャラの撃破特効+16%。装備キャラの速度が145以上の場合、更に撃破特効+20%。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>装備キャラの効果命中率+10%。装備キャラの攻撃力が、効果命中率の25%分アップ、最大で+25%。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>装備キャラの会心ダメージ+16%。装備キャラの会心ダメージが120%以上の場合、戦闘に入った後、装備キャラの会心率+60%、初回の攻撃が終了するまで持続。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>装備キャラの会心率+8%。装備キャラの会心率が50%以上の場合、必殺技と追加攻撃の与ダメージ+15%。</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>装備キャラの防御力+15%。装備キャラの効果命中が50%以上の場合、さらに防御力+15%。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>up_hp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>up_atk</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>up_def</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>up_agi</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>dmg_b</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -496,7 +452,80 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>taken_dmg</t>
+    <t>2set_hp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2set_atk</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2set_def</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2set_agi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2set_dmg_b</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4set_hp</t>
+  </si>
+  <si>
+    <t>4set_atk</t>
+  </si>
+  <si>
+    <t>4set_def</t>
+  </si>
+  <si>
+    <t>4set_agi</t>
+  </si>
+  <si>
+    <t>4set_dmg_b</t>
+  </si>
+  <si>
+    <t>装備キャラの攻撃力+12%。装備キャラの速度が120以上の場合、さらに攻撃力+12%。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>装備キャラのEP回復効率+5%。装備キャラの速度が120以上の場合、戦闘に入る時、行動順が40%早める。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>装備キャラの撃破特効+16%。装備キャラの速度が145以上の場合、さらに撃破特効+20%。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>装備キャラの効果命中率+10%。装備キャラの攻撃力が、現在の効果命中25%分アップ、最大で+25%。</t>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>装備キャラの会心ダメージ+16%。装備キャラの会心ダメージが120%以上の場合、戦闘に入った後、装備キャラの会心率+60%、初回の攻撃が終了するまで継続。</t>
+    <rPh sb="74" eb="76">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2set_cri_dmg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4set_cri_dmg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4set_def_ig</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1098,14 +1127,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -1512,12 +1538,16 @@
     <col min="3" max="3" width="8.796875" style="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="144.09765625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="9.19921875" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="16.8984375" customWidth="1"/>
+    <col min="21" max="22" width="8.796875" style="1"/>
+    <col min="23" max="23" width="9.19921875" customWidth="1"/>
+    <col min="24" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,174 +1555,222 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="O2">
         <v>6</v>
       </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>10</v>
       </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1">
+        <v>47</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>10</v>
       </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>10</v>
       </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1703,204 +1781,237 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1">
+        <v>50</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="P21">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M1 J2:J1048576">
+  <conditionalFormatting sqref="Y2:Y1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>

--- a/data/hsr/data_hsr_artifact.xlsx
+++ b/data/hsr/data_hsr_artifact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamuratetsurou/Desktop/名称未設定フォルダ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340AFEF-4F5B-4BB1-B2E3-C6E64B42BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84347C3-0CD1-CB44-A16B-76396E197652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="996" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1000" windowWidth="15380" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>name</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2bonus</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>4bonus</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>草の穂ガンマン</t>
@@ -58,7 +58,7 @@
     <rPh sb="2" eb="3">
       <t>ホ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>流星の跡を追う怪盗</t>
@@ -74,7 +74,7 @@
     <rPh sb="7" eb="9">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>溶岩で鍛造する火匠</t>
@@ -90,7 +90,7 @@
     <rPh sb="8" eb="9">
       <t>タクミ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>成り上がりチャンピオン</t>
@@ -100,14 +100,14 @@
     <rPh sb="2" eb="3">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>雷鳴轟くバンド</t>
     <rPh sb="0" eb="3">
       <t>ライメイトドロ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>昼夜の狭間を翔ける鷹</t>
@@ -123,7 +123,7 @@
     <rPh sb="9" eb="10">
       <t>タカ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>雪の密林の狩人</t>
@@ -136,7 +136,7 @@
     <rPh sb="5" eb="7">
       <t>カリウド</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>純庭協会の聖騎士</t>
@@ -152,7 +152,7 @@
     <rPh sb="5" eb="8">
       <t>セイキシ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>星の如く輝く天才</t>
@@ -168,7 +168,7 @@
     <rPh sb="6" eb="8">
       <t>テンサイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>流雲無痕の過客</t>
@@ -190,7 +190,7 @@
     <rPh sb="6" eb="7">
       <t>キャク</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>荒地で盗みを働く廃土客</t>
@@ -209,7 +209,7 @@
     <rPh sb="10" eb="11">
       <t>キャク</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>吹雪と対峙する兵士</t>
@@ -222,7 +222,7 @@
     <rPh sb="7" eb="9">
       <t>ヘイシ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>老いぬ者の仙舟</t>
@@ -238,7 +238,7 @@
     <rPh sb="6" eb="7">
       <t>フネ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>宇宙封印ステーション</t>
@@ -248,14 +248,14 @@
     <rPh sb="2" eb="4">
       <t>フウイン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>生命のウェンワーク</t>
     <rPh sb="0" eb="2">
       <t>セイメイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>盗賊公国タリア</t>
@@ -265,7 +265,7 @@
     <rPh sb="2" eb="4">
       <t>コウコク</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>凡銀河商事会社</t>
@@ -281,7 +281,7 @@
     <rPh sb="5" eb="7">
       <t>ガイシャ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>天体階差機関</t>
@@ -294,7 +294,7 @@
     <rPh sb="4" eb="6">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>建創者のベロブルグ</t>
@@ -307,7 +307,7 @@
     <rPh sb="2" eb="3">
       <t>モノ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>自転が止まったサルソット</t>
@@ -317,102 +317,102 @@
     <rPh sb="3" eb="4">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>攻撃力+12%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>撃破特効+16%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの速度+6%、通常攻撃の与ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>炎属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの戦闘スキルの与ダメージ+12%。必殺技を発動した後、次の攻撃の炎属性与ダメージ+12%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>物理ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>雷属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが戦闘スキルを発動した時、装備キャラの攻撃力+20%、1ターン継続。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>風属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが必殺技を発動した後、行動順が25%早まる。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>氷属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが必殺技を発動した後、会心ダメージ+25%、2ターン継続。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>防御力+15%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが付与するバリアの耐久値+20%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>量子属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>治癒量+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>戦闘開始時、SPを1回復する。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>虚数属性ダメージ+10%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>被ダメージ-8%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの最大HP+12%。装備キャラの速度が120以上の場合、味方全体の攻撃力+8%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの会心率+8%。装備キャラの会心率が50%以上の場合、必殺技と追加攻撃の与ダメージ+15%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの防御力+15%。装備キャラの効果命中が50%以上の場合、さらに防御力+15%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの撃破特効+16%。装備キャラが敵を弱点撃破した後、EPを3回復する。</t>
     <rPh sb="29" eb="30">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが攻撃を行う、または攻撃を受けた後、今回の戦闘中の攻撃力+5%、最大で5層累積できる。</t>
@@ -428,7 +428,7 @@
     <rPh sb="42" eb="44">
       <t>ルイセキ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ターンが回ってきた時、装備キャラの残りHPが50%以下の場合、HPを最大HP8%分回復し、EPを5回復する。</t>
@@ -438,38 +438,38 @@
     <rPh sb="40" eb="41">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラが敵にダメージを与えた時、敵の防御力を10%無視する。敵に量子属性の弱点がある場合、さらに防御力を10%無視する。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>デバフ状態の敵にダメージを与えた時、装備キャラの会心率+10%。禁錮状態の敵にダメージを与えた時、会心ダメージ+20%。</t>
     <rPh sb="16" eb="17">
       <t>トキ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_hp</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_atk</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_def</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_agi</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_dmg_b</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>4set_hp</t>
@@ -488,54 +488,135 @@
   </si>
   <si>
     <t>装備キャラの攻撃力+12%。装備キャラの速度が120以上の場合、さらに攻撃力+12%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラのEP回復効率+5%。装備キャラの速度が120以上の場合、戦闘に入る時、行動順が40%早める。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの撃破特効+16%。装備キャラの速度が145以上の場合、さらに撃破特効+20%。</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの効果命中率+10%。装備キャラの攻撃力が、現在の効果命中25%分アップ、最大で+25%。</t>
     <rPh sb="27" eb="29">
       <t>ゲンザイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>装備キャラの会心ダメージ+16%。装備キャラの会心ダメージが120%以上の場合、戦闘に入った後、装備キャラの会心率+60%、初回の攻撃が終了するまで継続。</t>
     <rPh sb="74" eb="76">
       <t>ケイゾク</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2set_cri_dmg</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>4set_cri_dmg</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>4set_def_ig</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>最大HP+12%。</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>宝命長存の蒔者</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イノティ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゾンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">マク </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">モノ </t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>仮想空間を漫遊するメッセンジャー</t>
+    <rPh sb="0" eb="4">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マンユウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>装備キャラが攻撃を受ける、または味方によってHPを消費させられた後、会心率+8%、2ターン継続。この効果は最大で2層累積できる。</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>速度+6%。</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>装備キャラが味方に対して必殺技を発動した時、味方全体の速度+12％。1ターン継続。この効果は累積できない。</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>星々の競技場</t>
+    <rPh sb="3" eb="6">
+      <t>キョウギ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>折れた竜骨</t>
+    <rPh sb="0" eb="1">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウコテゥ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>装備キャラの会心率+8%。装備キャラの会心率が70%以上の時、通常攻撃と戦闘スキルの与ダメージ+20%。</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>装備キャラの効果抵抗+10%。装備キャラの効果抵抗が30%以上の時、味方全体の会心ダメージ+10%。</t>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1003,135 +1084,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,29 +1609,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="144.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="144.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="16.8984375" customWidth="1"/>
-    <col min="21" max="22" width="8.796875" style="1"/>
-    <col min="23" max="23" width="9.19921875" customWidth="1"/>
-    <col min="24" max="16384" width="8.796875" style="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" style="1"/>
+    <col min="23" max="23" width="9.1640625" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1688,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1635,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1658,7 +1742,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1681,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1704,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1727,7 +1811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1747,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1770,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1793,7 +1877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1816,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1836,7 +1920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1853,7 +1937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1870,161 +1954,242 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>102</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="O15">
         <v>12</v>
       </c>
-      <c r="M15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P21">
+      <c r="H23" s="1"/>
+      <c r="J23">
         <v>15</v>
       </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <phoneticPr fontId="19"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y13 Y16:Y1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
